--- a/praca/badania/badanie1.xlsx
+++ b/praca/badania/badanie1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abani\Desktop\Praca magisterska\praca\badania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399382DB-55B1-4F31-9BB4-5EA0CC79ECA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43867F7E-26C7-442B-9CEC-092B17F4EF55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49815" yWindow="8310" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,12 +135,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -465,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,51 +498,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,6 +517,54 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:O21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,31 +892,31 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="29"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
@@ -912,37 +924,37 @@
       <c r="AC4" s="7"/>
     </row>
     <row r="5" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C5" s="22"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14" t="s">
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="14" t="s">
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="11" t="s">
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="25"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="7" t="s">
         <v>7</v>
@@ -953,7 +965,7 @@
       <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +1023,7 @@
       <c r="V6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="W6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="X6" s="1"/>
@@ -1024,7 +1036,7 @@
       <c r="AC6" s="7"/>
     </row>
     <row r="7" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C7" s="25">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
       <c r="D7" s="5">
@@ -1084,7 +1096,7 @@
       <c r="V7" s="8">
         <v>3</v>
       </c>
-      <c r="W7" s="26">
+      <c r="W7" s="11">
         <v>7</v>
       </c>
       <c r="X7" s="1"/>
@@ -1097,7 +1109,7 @@
       <c r="AC7" s="7"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C8" s="25">
+      <c r="C8" s="10">
         <v>2</v>
       </c>
       <c r="D8" s="5">
@@ -1157,7 +1169,7 @@
       <c r="V8" s="8">
         <v>4</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="11">
         <v>6</v>
       </c>
       <c r="X8" s="1"/>
@@ -1170,7 +1182,7 @@
       <c r="AC8" s="7"/>
     </row>
     <row r="9" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C9" s="25">
+      <c r="C9" s="10">
         <v>3</v>
       </c>
       <c r="D9" s="5">
@@ -1230,7 +1242,7 @@
       <c r="V9" s="8">
         <v>4</v>
       </c>
-      <c r="W9" s="26">
+      <c r="W9" s="11">
         <v>6</v>
       </c>
       <c r="X9" s="1"/>
@@ -1243,7 +1255,7 @@
       <c r="AC9" s="7"/>
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C10" s="25">
+      <c r="C10" s="10">
         <v>4</v>
       </c>
       <c r="D10" s="5">
@@ -1303,7 +1315,7 @@
       <c r="V10" s="8">
         <v>4</v>
       </c>
-      <c r="W10" s="26">
+      <c r="W10" s="11">
         <v>6</v>
       </c>
       <c r="X10" s="1"/>
@@ -1316,7 +1328,7 @@
       <c r="AC10" s="7"/>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C11" s="25">
+      <c r="C11" s="10">
         <v>5</v>
       </c>
       <c r="D11" s="5">
@@ -1376,7 +1388,7 @@
       <c r="V11" s="8">
         <v>6</v>
       </c>
-      <c r="W11" s="26">
+      <c r="W11" s="11">
         <v>4</v>
       </c>
       <c r="X11" s="1"/>
@@ -1389,7 +1401,7 @@
       <c r="AC11" s="7"/>
     </row>
     <row r="12" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C12" s="25">
+      <c r="C12" s="10">
         <v>6</v>
       </c>
       <c r="D12" s="5">
@@ -1449,7 +1461,7 @@
       <c r="V12" s="8">
         <v>5</v>
       </c>
-      <c r="W12" s="26">
+      <c r="W12" s="11">
         <v>5</v>
       </c>
       <c r="X12" s="1"/>
@@ -1460,7 +1472,7 @@
       <c r="AC12" s="7"/>
     </row>
     <row r="13" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C13" s="25">
+      <c r="C13" s="10">
         <v>7</v>
       </c>
       <c r="D13" s="5">
@@ -1520,7 +1532,7 @@
       <c r="V13" s="8">
         <v>6</v>
       </c>
-      <c r="W13" s="26">
+      <c r="W13" s="11">
         <v>4</v>
       </c>
       <c r="X13" s="1"/>
@@ -1531,7 +1543,7 @@
       <c r="AC13" s="7"/>
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C14" s="25">
+      <c r="C14" s="10">
         <v>8</v>
       </c>
       <c r="D14" s="5">
@@ -1591,7 +1603,7 @@
       <c r="V14" s="8">
         <v>4</v>
       </c>
-      <c r="W14" s="26">
+      <c r="W14" s="11">
         <v>6</v>
       </c>
       <c r="X14" s="1"/>
@@ -1604,7 +1616,7 @@
       <c r="AC14" s="7"/>
     </row>
     <row r="15" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C15" s="25">
+      <c r="C15" s="10">
         <v>9</v>
       </c>
       <c r="D15" s="5">
@@ -1664,7 +1676,7 @@
       <c r="V15" s="8">
         <v>5</v>
       </c>
-      <c r="W15" s="26">
+      <c r="W15" s="11">
         <v>5</v>
       </c>
       <c r="X15" s="1"/>
@@ -1677,67 +1689,67 @@
       <c r="AC15" s="7"/>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C16" s="27">
-        <v>10</v>
-      </c>
-      <c r="D16" s="28">
-        <v>9</v>
-      </c>
-      <c r="E16" s="29">
+      <c r="C16" s="12">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14">
         <v>1</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="15">
         <v>5</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="15">
         <v>5</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="13">
         <v>1</v>
       </c>
-      <c r="I16" s="29">
-        <v>9</v>
-      </c>
-      <c r="J16" s="30">
-        <v>10</v>
-      </c>
-      <c r="K16" s="30">
-        <v>0</v>
-      </c>
-      <c r="L16" s="28">
+      <c r="I16" s="14">
+        <v>9</v>
+      </c>
+      <c r="J16" s="15">
+        <v>10</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
         <v>3</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="14">
         <v>7</v>
       </c>
-      <c r="N16" s="30">
-        <v>10</v>
-      </c>
-      <c r="O16" s="30">
-        <v>0</v>
-      </c>
-      <c r="P16" s="28">
+      <c r="N16" s="15">
+        <v>10</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
         <v>3</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q16" s="14">
         <v>7</v>
       </c>
-      <c r="R16" s="30">
-        <v>10</v>
-      </c>
-      <c r="S16" s="30">
-        <v>0</v>
-      </c>
-      <c r="T16" s="28">
-        <v>10</v>
-      </c>
-      <c r="U16" s="29">
-        <v>0</v>
-      </c>
-      <c r="V16" s="30">
+      <c r="R16" s="15">
+        <v>10</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="13">
+        <v>10</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
         <v>5</v>
       </c>
-      <c r="W16" s="31">
+      <c r="W16" s="16">
         <v>5</v>
       </c>
       <c r="X16" s="1"/>
@@ -1750,132 +1762,132 @@
       <c r="AC16" s="7"/>
     </row>
     <row r="21" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10" t="s">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10" t="s">
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
     </row>
     <row r="22" spans="4:19" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16" t="s">
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
     </row>
     <row r="23" spans="4:19" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16" t="s">
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16" t="s">
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
     </row>
     <row r="24" spans="4:19" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16" t="s">
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
     </row>
     <row r="25" spans="4:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" spans="4:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" spans="4:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1884,14 +1896,12 @@
     <row r="32" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="D22:G22"/>
@@ -1905,14 +1915,16 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="P22:S22"/>
     <mergeCell ref="P23:S23"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:O24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/praca/badania/badanie1.xlsx
+++ b/praca/badania/badanie1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abani\Desktop\Praca magisterska\praca\badania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43867F7E-26C7-442B-9CEC-092B17F4EF55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6257F-2DF7-496A-B164-6FD7EC868CB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>Ilość treningów</t>
   </si>
@@ -129,6 +129,27 @@
   </si>
   <si>
     <t>przywołanie w pamięci gry</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Uniesienie</t>
+  </si>
+  <si>
+    <t>Przesunięcie w prawo</t>
+  </si>
+  <si>
+    <t>Opuszczenie</t>
+  </si>
+  <si>
+    <t>Przesunięcie w lewo</t>
+  </si>
+  <si>
+    <t>Zmarszczenie brwi</t>
   </si>
 </sst>
 </file>
@@ -179,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -470,11 +491,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,27 +730,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,6 +771,72 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:AC32"/>
+  <dimension ref="C1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:G24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,1040 +1163,1572 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="29"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-    </row>
-    <row r="5" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C5" s="21"/>
-      <c r="D5" s="30" t="s">
+    <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="20"/>
+      <c r="D3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="42"/>
+      <c r="L3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="36"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="20"/>
+      <c r="D4" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="44">
+        <f>D21/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="45">
+        <f>G21/10</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="46">
+        <f>H21/10</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="45">
+        <f>K21/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="47">
+        <f>L21/10</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="48">
+        <f>O21/10</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="46">
+        <f>P21/10</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="45">
+        <f>S21/10</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="47">
+        <f>T21/10</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="45">
+        <f>W21/10</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="30" t="s">
+      <c r="D6" s="44">
+        <f>D22/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" ref="E6:E14" si="0">G22/10</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="46">
+        <f t="shared" ref="F6:F14" si="1">H22/10</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="45">
+        <f t="shared" ref="G6:H6" si="2">K22/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="48">
+        <f t="shared" ref="I6:J6" si="3">O22/10</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="45">
+        <f t="shared" ref="K6:L6" si="4">S22/10</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="47">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="45">
+        <f t="shared" ref="M6:M14" si="5">W22/10</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="10">
         <v>3</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="30" t="s">
+      <c r="D7" s="44">
+        <f t="shared" ref="D7:D14" si="6">D23/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="45">
+        <f t="shared" ref="G7:H7" si="7">K23/10</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="48">
+        <f t="shared" ref="I7:J7" si="8">O23/10</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="45">
+        <f t="shared" ref="K7:L7" si="9">S23/10</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="47">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="45">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="10">
         <v>4</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="30" t="s">
+      <c r="D8" s="44">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="45">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="45">
+        <f t="shared" ref="G8:H8" si="10">K24/10</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="47">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="48">
+        <f t="shared" ref="I8:J8" si="11">O24/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="46">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="45">
+        <f t="shared" ref="K8:L8" si="12">S24/10</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="47">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="45">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
         <v>5</v>
       </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="22" t="s">
+      <c r="D9" s="44">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="45">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="46">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="45">
+        <f t="shared" ref="G9:H9" si="13">K25/10</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="47">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="48">
+        <f t="shared" ref="I9:J9" si="14">O25/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="46">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="45">
+        <f t="shared" ref="K9:L9" si="15">S25/10</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="47">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="45">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="10">
         <v>6</v>
       </c>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="7" t="s">
+      <c r="D10" s="44">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="45">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="45">
+        <f t="shared" ref="G10:H10" si="16">K26/10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="47">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="I10" s="48">
+        <f t="shared" ref="I10:J10" si="17">O26/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="46">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="45">
+        <f t="shared" ref="K10:L10" si="18">S26/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="47">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="45">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="10">
         <v>7</v>
       </c>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-    </row>
-    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C6" s="21"/>
-      <c r="D6" s="4" t="s">
+      <c r="D11" s="44">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="45">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="45">
+        <f t="shared" ref="G11:H11" si="19">K27/10</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="47">
+        <f t="shared" si="19"/>
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="48">
+        <f t="shared" ref="I11:J11" si="20">O27/10</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="46">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="45">
+        <f t="shared" ref="K11:L11" si="21">S27/10</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="47">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="45">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="10">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D12" s="44">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="46">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="45">
+        <f t="shared" ref="G12:H12" si="22">K28/10</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="47">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="48">
+        <f t="shared" ref="I12:J12" si="23">O28/10</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="46">
+        <f t="shared" si="23"/>
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="45">
+        <f t="shared" ref="K12:L12" si="24">S28/10</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="47">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="45">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="10">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="D13" s="44">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="46">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="45">
+        <f t="shared" ref="G13:H13" si="25">K29/10</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="47">
+        <f t="shared" si="25"/>
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="48">
+        <f t="shared" ref="I13:J13" si="26">O29/10</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="46">
+        <f t="shared" si="26"/>
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="45">
+        <f t="shared" ref="K13:L13" si="27">S29/10</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="47">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="45">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="12">
+        <v>10</v>
+      </c>
+      <c r="D14" s="49">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="50">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="51">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="50">
+        <f t="shared" ref="G14:H14" si="28">K30/10</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="52">
+        <f t="shared" si="28"/>
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="53">
+        <f t="shared" ref="I14:J14" si="29">O30/10</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="51">
+        <f t="shared" si="29"/>
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="50">
+        <f t="shared" ref="K14:L14" si="30">S30/10</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="52">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="50">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="29"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C19" s="20"/>
+      <c r="D19" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="22"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C20" s="20"/>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="J20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="6" t="s">
+      <c r="N20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="6" t="s">
+      <c r="R20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W6" s="9" t="s">
+      <c r="V20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="7" t="s">
+      <c r="X20" s="1"/>
+      <c r="Y20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-    </row>
-    <row r="7" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E21" s="2">
         <v>8</v>
       </c>
-      <c r="F7" s="8">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>10</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="8">
         <v>6</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K21" s="8">
         <v>4</v>
       </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>10</v>
-      </c>
-      <c r="N7" s="8">
-        <v>10</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>10</v>
-      </c>
-      <c r="R7" s="8">
-        <v>10</v>
-      </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <v>10</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>10</v>
+      </c>
+      <c r="N21" s="8">
+        <v>10</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>10</v>
+      </c>
+      <c r="R21" s="8">
+        <v>10</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0</v>
+      </c>
+      <c r="T21" s="5">
+        <v>10</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="8">
         <v>3</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W21" s="11">
         <v>7</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="7" t="s">
+      <c r="X21" s="1"/>
+      <c r="Y21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-    </row>
-    <row r="8" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C8" s="10">
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C22" s="10">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>9</v>
       </c>
-      <c r="F8" s="8">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="F22" s="8">
+        <v>10</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>10</v>
+      </c>
+      <c r="J22" s="8">
         <v>8</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K22" s="8">
         <v>2</v>
       </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>10</v>
-      </c>
-      <c r="N8" s="8">
-        <v>10</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>10</v>
-      </c>
-      <c r="R8" s="8">
-        <v>10</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5">
-        <v>10</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>10</v>
+      </c>
+      <c r="N22" s="8">
+        <v>10</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>10</v>
+      </c>
+      <c r="R22" s="8">
+        <v>10</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <v>10</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="8">
         <v>4</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W22" s="11">
         <v>6</v>
       </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="7" t="s">
+      <c r="X22" s="1"/>
+      <c r="Y22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-    </row>
-    <row r="9" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C9" s="10">
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C23" s="10">
         <v>3</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>9</v>
       </c>
-      <c r="F9" s="8">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="8">
-        <v>10</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>10</v>
-      </c>
-      <c r="N9" s="8">
-        <v>10</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>10</v>
-      </c>
-      <c r="R9" s="8">
-        <v>10</v>
-      </c>
-      <c r="S9" s="8">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
-        <v>10</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="8">
+      <c r="F23" s="8">
+        <v>10</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>10</v>
+      </c>
+      <c r="J23" s="8">
+        <v>10</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>10</v>
+      </c>
+      <c r="N23" s="8">
+        <v>10</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>10</v>
+      </c>
+      <c r="R23" s="8">
+        <v>10</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <v>10</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="8">
         <v>4</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W23" s="11">
         <v>6</v>
       </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" t="s">
+      <c r="X23" s="1"/>
+      <c r="Y23" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-    </row>
-    <row r="10" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C10" s="10">
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C24" s="10">
         <v>4</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D24" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E24" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F24" s="8">
         <v>6</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G24" s="8">
         <v>4</v>
       </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>10</v>
-      </c>
-      <c r="J10" s="8">
-        <v>10</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="8">
+        <v>10</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
         <v>9</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N24" s="8">
         <v>8</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O24" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
+      <c r="P24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
         <v>9</v>
       </c>
-      <c r="R10" s="8">
-        <v>10</v>
-      </c>
-      <c r="S10" s="8">
-        <v>0</v>
-      </c>
-      <c r="T10" s="5">
-        <v>10</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="8">
+      <c r="R24" s="8">
+        <v>10</v>
+      </c>
+      <c r="S24" s="8">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
+        <v>10</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="8">
         <v>4</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W24" s="11">
         <v>6</v>
       </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="7" t="s">
+      <c r="X24" s="1"/>
+      <c r="Y24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-    </row>
-    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C11" s="10">
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C25" s="10">
         <v>5</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D25" s="5">
         <v>6</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E25" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F25" s="8">
         <v>8</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G25" s="8">
         <v>2</v>
       </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
         <v>9</v>
       </c>
-      <c r="J11" s="8">
-        <v>10</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="J25" s="8">
+        <v>10</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
         <v>9</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N25" s="8">
         <v>9</v>
       </c>
-      <c r="O11" s="8">
-        <v>1</v>
-      </c>
-      <c r="P11" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="O25" s="8">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
         <v>9</v>
       </c>
-      <c r="R11" s="8">
-        <v>10</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0</v>
-      </c>
-      <c r="T11" s="5">
-        <v>10</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="8">
+      <c r="R25" s="8">
+        <v>10</v>
+      </c>
+      <c r="S25" s="8">
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
+        <v>10</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="8">
         <v>6</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W25" s="11">
         <v>4</v>
       </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="7" t="s">
+      <c r="X25" s="1"/>
+      <c r="Y25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-    </row>
-    <row r="12" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C12" s="10">
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C26" s="10">
         <v>6</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D26" s="5">
         <v>8</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E26" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F26" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G26" s="8">
         <v>5</v>
       </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>10</v>
-      </c>
-      <c r="J12" s="8">
-        <v>10</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>10</v>
+      </c>
+      <c r="J26" s="8">
+        <v>10</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
         <v>4</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M26" s="2">
         <v>6</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N26" s="8">
         <v>9</v>
       </c>
-      <c r="O12" s="8">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="O26" s="8">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5">
         <v>2</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q26" s="2">
         <v>8</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R26" s="8">
         <v>9</v>
       </c>
-      <c r="S12" s="8">
-        <v>1</v>
-      </c>
-      <c r="T12" s="5">
-        <v>10</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8">
+      <c r="S26" s="8">
+        <v>1</v>
+      </c>
+      <c r="T26" s="5">
+        <v>10</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="8">
         <v>5</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W26" s="11">
         <v>5</v>
       </c>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-    </row>
-    <row r="13" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C13" s="10">
+      <c r="X26" s="1"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C27" s="10">
         <v>7</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D27" s="5">
         <v>9</v>
       </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
         <v>4</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G27" s="8">
         <v>6</v>
       </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>10</v>
-      </c>
-      <c r="J13" s="8">
-        <v>10</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>10</v>
+      </c>
+      <c r="J27" s="8">
+        <v>10</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
         <v>2</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M27" s="2">
         <v>8</v>
       </c>
-      <c r="N13" s="8">
-        <v>10</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="2">
+      <c r="N27" s="8">
+        <v>10</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
         <v>9</v>
       </c>
-      <c r="R13" s="8">
-        <v>10</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0</v>
-      </c>
-      <c r="T13" s="5">
-        <v>10</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="8">
+      <c r="R27" s="8">
+        <v>10</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
+        <v>10</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="8">
         <v>6</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W27" s="11">
         <v>4</v>
       </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-    </row>
-    <row r="14" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C14" s="10">
+      <c r="X27" s="1"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C28" s="10">
         <v>8</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D28" s="5">
         <v>9</v>
       </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
         <v>3</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G28" s="8">
         <v>7</v>
       </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
         <v>9</v>
       </c>
-      <c r="J14" s="8">
-        <v>10</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="J28" s="8">
+        <v>10</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
         <v>2</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M28" s="2">
         <v>8</v>
       </c>
-      <c r="N14" s="8">
-        <v>10</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="N28" s="8">
+        <v>10</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
         <v>3</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q28" s="2">
         <v>7</v>
       </c>
-      <c r="R14" s="8">
-        <v>10</v>
-      </c>
-      <c r="S14" s="8">
-        <v>0</v>
-      </c>
-      <c r="T14" s="5">
-        <v>10</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="8">
+      <c r="R28" s="8">
+        <v>10</v>
+      </c>
+      <c r="S28" s="8">
+        <v>0</v>
+      </c>
+      <c r="T28" s="5">
+        <v>10</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="8">
         <v>4</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W28" s="11">
         <v>6</v>
       </c>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="7" t="s">
+      <c r="X28" s="1"/>
+      <c r="Y28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-    </row>
-    <row r="15" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C15" s="10">
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C29" s="10">
         <v>9</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D29" s="5">
         <v>8</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E29" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F29" s="8">
         <v>7</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G29" s="8">
         <v>3</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H29" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I29" s="2">
         <v>8</v>
       </c>
-      <c r="J15" s="8">
-        <v>10</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="J29" s="8">
+        <v>10</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
         <v>3</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M29" s="2">
         <v>7</v>
       </c>
-      <c r="N15" s="8">
-        <v>10</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5">
+      <c r="N29" s="8">
+        <v>10</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
         <v>2</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q29" s="2">
         <v>8</v>
       </c>
-      <c r="R15" s="8">
-        <v>10</v>
-      </c>
-      <c r="S15" s="8">
-        <v>0</v>
-      </c>
-      <c r="T15" s="5">
-        <v>10</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="8">
+      <c r="R29" s="8">
+        <v>10</v>
+      </c>
+      <c r="S29" s="8">
+        <v>0</v>
+      </c>
+      <c r="T29" s="5">
+        <v>10</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="8">
         <v>5</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W29" s="11">
         <v>5</v>
       </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="7" t="s">
+      <c r="X29" s="1"/>
+      <c r="Y29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-    </row>
-    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C16" s="12">
-        <v>10</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C30" s="12">
+        <v>10</v>
+      </c>
+      <c r="D30" s="13">
         <v>9</v>
       </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15">
         <v>5</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G30" s="15">
         <v>5</v>
       </c>
-      <c r="H16" s="13">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14">
+      <c r="H30" s="13">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14">
         <v>9</v>
       </c>
-      <c r="J16" s="15">
-        <v>10</v>
-      </c>
-      <c r="K16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="13">
+      <c r="J30" s="15">
+        <v>10</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
         <v>3</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M30" s="14">
         <v>7</v>
       </c>
-      <c r="N16" s="15">
-        <v>10</v>
-      </c>
-      <c r="O16" s="15">
-        <v>0</v>
-      </c>
-      <c r="P16" s="13">
+      <c r="N30" s="15">
+        <v>10</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13">
         <v>3</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q30" s="14">
         <v>7</v>
       </c>
-      <c r="R16" s="15">
-        <v>10</v>
-      </c>
-      <c r="S16" s="15">
-        <v>0</v>
-      </c>
-      <c r="T16" s="13">
-        <v>10</v>
-      </c>
-      <c r="U16" s="14">
-        <v>0</v>
-      </c>
-      <c r="V16" s="15">
+      <c r="R30" s="15">
+        <v>10</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0</v>
+      </c>
+      <c r="T30" s="13">
+        <v>10</v>
+      </c>
+      <c r="U30" s="14">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
         <v>5</v>
       </c>
-      <c r="W16" s="16">
+      <c r="W30" s="16">
         <v>5</v>
       </c>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="7" t="s">
+      <c r="X30" s="1"/>
+      <c r="Y30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-    </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D21" s="18" t="s">
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18" t="s">
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18" t="s">
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18" t="s">
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-    </row>
-    <row r="22" spans="4:19" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="19" t="s">
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+    </row>
+    <row r="36" spans="4:19" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19" t="s">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19" t="s">
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-    </row>
-    <row r="23" spans="4:19" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="19" t="s">
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+    </row>
+    <row r="37" spans="4:19" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="32" t="s">
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="19" t="s">
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-    </row>
-    <row r="24" spans="4:19" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="19" t="s">
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+    </row>
+    <row r="38" spans="4:19" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="32" t="s">
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32" t="s">
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-    </row>
-    <row r="25" spans="4:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="4:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="4:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+    </row>
+    <row r="39" spans="4:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="4:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+    </row>
+    <row r="41" spans="4:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="4:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="D4:W4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="D24:G24"/>
+  <mergeCells count="36">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="D18:W18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
